--- a/Workspace/Draft/registre de faits.xlsx
+++ b/Workspace/Draft/registre de faits.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ECA817-4941-43B3-9387-D795A8573F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AFCB7A-4628-42C9-831E-AF6071F8917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Sources" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Qui</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>Le Raptor; michel</t>
-  </si>
-  <si>
-    <t>1 - Sources'!A10</t>
   </si>
 </sst>
 </file>
@@ -813,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -855,9 +852,7 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -936,9 +931,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" location="'1 - Sources'!A10" display="'1 - Sources'!A10" xr:uid="{B80E1E48-3D2D-466C-9F6C-61BCED68E4CE}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -949,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A7DD54-4937-46AF-91E1-991D61AD55EA}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Workspace/Draft/registre de faits.xlsx
+++ b/Workspace/Draft/registre de faits.xlsx
@@ -1,20 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AFCB7A-4628-42C9-831E-AF6071F8917E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CEC4DDAF-07CC-4551-87B7-89A3136C5318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1B99207-F0B3-41B4-8700-B522B8D0CDC5}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5052" yWindow="2964" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - Sources" sheetId="1" r:id="rId1"/>
     <sheet name="2 - Extraits" sheetId="2" r:id="rId2"/>
     <sheet name="3 - Thèses" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1 - Sources'!$A$1:$F$1</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,31 +29,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Auteur</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{3590E6B2-CCBB-4227-B93E-410523C9A5B9}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Colonnes correspondent aux composantes des noms des sources</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>Qui</t>
   </si>
@@ -99,9 +74,6 @@
     <t>Dit: "En revanche ce dispositif (le pass sanitaire) ne sera évidemment pas étendu aux activités du quotidien"</t>
   </si>
   <si>
-    <t>Où (Source)</t>
-  </si>
-  <si>
     <t>Dit: "Le pass sanitaire sera donc réservé aux grands évènements dans lesquels les gestes barrières ne peuvent être assurés, en aucun cas un pass sanitaire ne sera réclamé pour aller dans un commerce alimentaire ou dans un restaurant"</t>
   </si>
   <si>
@@ -111,18 +83,9 @@
     <t>Commentaire</t>
   </si>
   <si>
-    <t>Quel titre</t>
-  </si>
-  <si>
     <t>Je BALAYE DÉFINITIVEMENT l'Année 2021</t>
   </si>
   <si>
-    <t>Qui parle</t>
-  </si>
-  <si>
-    <t>Qui publie (organisme)</t>
-  </si>
-  <si>
     <t>Ismail Ouslimani</t>
   </si>
   <si>
@@ -135,13 +98,148 @@
     <t>18m42s</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>Où (Index)</t>
   </si>
   <si>
     <t>Le Raptor; michel</t>
+  </si>
+  <si>
+    <t>Argument de</t>
+  </si>
+  <si>
+    <t>Conclusion de</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Pfizer a reçu des condamnations pour trucage d'essais</t>
+  </si>
+  <si>
+    <t>Pfizer a reçu des condamnations pour corruption</t>
+  </si>
+  <si>
+    <t>Dit quoi/fait quoi</t>
+  </si>
+  <si>
+    <t>Nav</t>
+  </si>
+  <si>
+    <t>Remonter à la source</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Idriss Aberkhane</t>
+  </si>
+  <si>
+    <t>Info extrait</t>
+  </si>
+  <si>
+    <t>[…] en quelques trimestres une boîte connue pour ses innombrables condamnations, corruptions trucages d'essais, homicides involontaires est soudainement devenue le bienfaiteur désinteressé de l'humanité.</t>
+  </si>
+  <si>
+    <t>Lien: https://violationtracker.goodjobsfirst.org/parent/pfizer
+Copie: -</t>
+  </si>
+  <si>
+    <t>Fiabilité</t>
+  </si>
+  <si>
+    <t>Total mensonges</t>
+  </si>
+  <si>
+    <t>Affirmations</t>
+  </si>
+  <si>
+    <t>V:
+F:</t>
+  </si>
+  <si>
+    <t>https://www.france24.com/fr/20090903-le-laboratoire-pfizer-ecope-dune-amende-23%C2%A0milliards-dollars-</t>
+  </si>
+  <si>
+    <t>Auteur (qui)</t>
+  </si>
+  <si>
+    <t>Titre (quoi)</t>
+  </si>
+  <si>
+    <t>Date (quand)</t>
+  </si>
+  <si>
+    <t>Pfizer, une entreprise qui vous veut du bien [IDRISS ABERKANE]</t>
+  </si>
+  <si>
+    <t>Date absolue (publication): 1 déc. 2021</t>
+  </si>
+  <si>
+    <t>Date relative (vidéo): 00:04:00 - 0:14:00</t>
+  </si>
+  <si>
+    <t>Lien: https://www.youtube.com/watch?v=M8W-9_40m98
+Copie: -</t>
+  </si>
+  <si>
+    <t>Le laboratoire Pfizer écope d'une amende de 2,3 milliards de dollars</t>
+  </si>
+  <si>
+    <t>France 24</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Média/plateforme (Où)</t>
+  </si>
+  <si>
+    <t>Good Job First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicateur: Idriss Aberkhane
+Auteur: Idriss Aberkhane </t>
+  </si>
+  <si>
+    <t>Publicateur: Good Job First</t>
+  </si>
+  <si>
+    <t>Publicateur: France 24
+Auteur: "Texte par: Dépêche"</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Sources: 1</t>
+  </si>
+  <si>
+    <t>Aval (Cité par)</t>
+  </si>
+  <si>
+    <t>Amont (Basé sur)</t>
+  </si>
+  <si>
+    <t>Publié le: 03/09/2009 03:27
+Modifié le: 03/09/2009 12:32</t>
+  </si>
+  <si>
+    <t>Publié le: 07/12/2016 12:03</t>
+  </si>
+  <si>
+    <t>La tribune</t>
+  </si>
+  <si>
+    <t>Amende de 99 millions d'euros contre Pfizer pour avoir surfacturé un médicament</t>
+  </si>
+  <si>
+    <t>Publicateur: La Tribune</t>
+  </si>
+  <si>
+    <t>Pfizer a reçu des condamnations pour homicide involontaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les gens ne doivent pas faire confiance </t>
   </si>
 </sst>
 </file>
@@ -157,12 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -170,8 +262,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303030"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +288,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -214,12 +324,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -239,7 +421,81 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -256,93 +512,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B872CA3C-44AA-4635-8B21-71A479BAB177}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9989820" y="731520"/>
-          <a:ext cx="3954780" cy="4343400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>Mettre l'accent sur qui a dit quoi quand, qui a fait quoi quand</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100"/>
-            <a:t>afin de mettre en évidence</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
-            <a:t> qui a menti et qui a dit la vérité, qui a vu juste et qui s'est trompé, et quel est le profil des émetteurs des sources (personnes ou sociétés) pour juger de la fiabilité des sources</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -607,208 +776,379 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21" style="9" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="B3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="6" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F26">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E5" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A7DD54-4937-46AF-91E1-991D61AD55EA}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="58.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
+      <c r="B2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BAC059-A32E-47BA-8A4F-6EB865F5F839}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -816,10 +1156,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -833,10 +1174,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -852,9 +1193,8 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -871,7 +1211,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -881,8 +1221,10 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -892,95 +1234,66 @@
       <c r="D5" s="3">
         <v>44334</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
         <v>44341</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3">
         <v>43955</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
-        <f>'1 - Sources'!A2</f>
+        <f>'1 - Sources'!A4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A7DD54-4937-46AF-91E1-991D61AD55EA}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
